--- a/tabs.xlsx
+++ b/tabs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -70,6 +70,9 @@
     <t>User should be navigated to the New  Account Page</t>
   </si>
   <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valid value for required field Account Name </t>
   </si>
   <si>
@@ -257,9 +260,6 @@
   </si>
   <si>
     <t>User should be able to validate that a New Case is created</t>
-  </si>
-  <si>
-    <t>Approved</t>
   </si>
   <si>
     <t>TestScenario_6</t>
@@ -1494,8 +1494,8 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I52"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1570,83 +1570,101 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="5:8">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="5:8">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9">
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9">
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1655,32 +1673,38 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1689,88 +1713,106 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1779,43 +1821,52 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
+        <v>56</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1824,94 +1875,112 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
+        <v>66</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="6:9">
       <c r="F25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1937,12 +2006,12 @@
         <v>86</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="6:9">
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>87</v>
@@ -1951,7 +2020,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1977,106 +2046,106 @@
         <v>93</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="6:9">
       <c r="F34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
         <v>94</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2102,12 +2171,12 @@
         <v>93</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="6:9">
       <c r="F36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>99</v>
@@ -2116,12 +2185,12 @@
         <v>100</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="6:9">
       <c r="F37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
         <v>101</v>
@@ -2130,7 +2199,7 @@
         <v>102</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2156,7 +2225,7 @@
         <v>107</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="5:9">
@@ -2164,7 +2233,7 @@
         <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
         <v>109</v>
@@ -2173,7 +2242,7 @@
         <v>110</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="5:9">
@@ -2181,7 +2250,7 @@
         <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>112</v>
@@ -2190,7 +2259,7 @@
         <v>113</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="5:9">
@@ -2198,7 +2267,7 @@
         <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
         <v>115</v>
@@ -2207,12 +2276,12 @@
         <v>116</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="6:9">
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -2221,7 +2290,7 @@
         <v>118</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2247,12 +2316,12 @@
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="6:9">
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>124</v>
@@ -2261,7 +2330,7 @@
         <v>125</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2287,7 +2356,7 @@
         <v>130</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="5:9">
@@ -2295,7 +2364,7 @@
         <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -2304,7 +2373,7 @@
         <v>110</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="5:9">
@@ -2312,7 +2381,7 @@
         <v>111</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
         <v>112</v>
@@ -2321,7 +2390,7 @@
         <v>113</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="5:9">
@@ -2329,7 +2398,7 @@
         <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
         <v>115</v>
@@ -2338,12 +2407,12 @@
         <v>116</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="6:9">
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -2352,7 +2421,7 @@
         <v>131</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2378,12 +2447,12 @@
         <v>130</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="F51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>136</v>
@@ -2392,12 +2461,12 @@
         <v>137</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="6:9">
       <c r="F52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
         <v>138</v>
@@ -2406,7 +2475,7 @@
         <v>139</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
